--- a/biology/Botanique/Joseph_Henri_Esquirol/Joseph_Henri_Esquirol.xlsx
+++ b/biology/Botanique/Joseph_Henri_Esquirol/Joseph_Henri_Esquirol.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Joseph Henri Esquirol est un missionnaire, linguiste et collecteur botanique français, né le 23 septembre 1870 à Plaisance (Aveyron) et mort le 8 août 1934 à Lanlong (Chine).
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Petit Séminaire de Belmont-sur-Rance et entre au Séminaire des Missions Étrangères le 13 septembre 1890. Il est ordonné prêtre le 30 juin 1895 et part le 15 août pour la mission du Kouy-tcheou (Guizhou en Chine).
-De 1895 à 1908, il est vicaire à Tsehen avec le père Gustave Williatte, au pays des Diois (Guangxi). Ils écrivent à deux un dictionnaire dioi-français et français-dioi, que le père Esquirol va lui-même faire imprimer à Hong Kong en 1908[1].
+De 1895 à 1908, il est vicaire à Tsehen avec le père Gustave Williatte, au pays des Diois (Guangxi). Ils écrivent à deux un dictionnaire dioi-français et français-dioi, que le père Esquirol va lui-même faire imprimer à Hong Kong en 1908.
 De 1908 à 1912, il évangélise à Lofou et de 1912 à 1924 à Wangmo.
 Dans son dernier poste à Tchengong, il étudie la langue de cette région et rédige un dictionnaire kanao-français et français-kanao.
 Malade, avec des crises hépatiques de plus en plus sérieuses, il se rend à Lanlong (Hunan) pour se soigner.
@@ -548,9 +562,11 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>avec Gustave Williatte - Dictionnaire Y-jen - Hongkong : Impr.de la Société des Missions Étrangères,1907 [2]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>avec Gustave Williatte - Dictionnaire Y-jen - Hongkong : Impr.de la Société des Missions Étrangères,1907 
 avec Gustave Williatte - Essai de dictionnaire dioi-français reproduisant la langue parlée par les tribus thai de la haute rivière de l'Ouest - Hongkong : impr. de la Société des Missions Étrangères, 1908
 Vocabulaire français-dioi - Hongkong : impr. de la Société des Missions Étrangères, 1908
 Dictionnaire Kanao-français et Français-Kanao - Hongkong : impr. de la Société des Missions Étrangères, 1931.
@@ -583,7 +599,9 @@
           <t>Plantes qui lui ont été dédiées</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour ses importantes collectes d'échantillons, un genre Esquirolia H.Lév., de la famille des Oléacées, lui a été dédié ainsi que de nombreuses espèces de plantes :
 </t>
